--- a/298-preparation-realease-403-ballot/ig/StructureDefinition-esms-consent.xlsx
+++ b/298-preparation-realease-403-ballot/ig/StructureDefinition-esms-consent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T13:04:24+00:00</t>
+    <t>2024-12-19T14:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
